--- a/data/survival/Westcott/D_survival_12172024.xlsx
+++ b/data/survival/Westcott/D_survival_12172024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF7820A-1C69-A447-8EBC-B6945EFAB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E1D41-219F-0C49-A12B-E116C082F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
+    <workbookView xWindow="8120" yWindow="640" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="44">
   <si>
     <t>bag_num</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">Counted 103 in pic </t>
+  </si>
+  <si>
+    <t>bag_tag_num</t>
   </si>
 </sst>
 </file>
@@ -548,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A079655-F369-EC42-A8CC-268AB3376697}">
-  <dimension ref="A1:K287"/>
+  <dimension ref="A1:L287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="N283" sqref="N283"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K273" sqref="K273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -582,16 +585,19 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -617,13 +623,16 @@
         <v>11</v>
       </c>
       <c r="I2">
+        <v>41</v>
+      </c>
+      <c r="J2">
         <v>89</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -649,16 +658,19 @@
         <v>12</v>
       </c>
       <c r="I3">
+        <v>58</v>
+      </c>
+      <c r="J3">
         <v>52</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -684,13 +696,16 @@
         <v>13</v>
       </c>
       <c r="I4">
+        <v>66</v>
+      </c>
+      <c r="J4">
         <v>103</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -716,13 +731,16 @@
         <v>14</v>
       </c>
       <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -748,13 +766,16 @@
         <v>15</v>
       </c>
       <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6">
         <v>98</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -780,16 +801,19 @@
         <v>16</v>
       </c>
       <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
         <v>95</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -815,16 +839,19 @@
         <v>17</v>
       </c>
       <c r="I8">
+        <v>92</v>
+      </c>
+      <c r="J8">
         <v>102</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -850,16 +877,19 @@
         <v>18</v>
       </c>
       <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
         <v>88</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -885,13 +915,16 @@
         <v>19</v>
       </c>
       <c r="I10">
+        <v>55</v>
+      </c>
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -917,13 +950,16 @@
         <v>20</v>
       </c>
       <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
         <v>104</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -949,16 +985,19 @@
         <v>21</v>
       </c>
       <c r="I12">
+        <v>64</v>
+      </c>
+      <c r="J12">
         <v>95</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -984,13 +1023,16 @@
         <v>22</v>
       </c>
       <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
         <v>102</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1016,13 +1058,16 @@
         <v>23</v>
       </c>
       <c r="I14">
+        <v>57</v>
+      </c>
+      <c r="J14">
         <v>97</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1048,16 +1093,19 @@
         <v>24</v>
       </c>
       <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
         <v>102</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1083,13 +1131,16 @@
         <v>25</v>
       </c>
       <c r="I16">
+        <v>96</v>
+      </c>
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1115,16 +1166,19 @@
         <v>26</v>
       </c>
       <c r="I17">
+        <v>74</v>
+      </c>
+      <c r="J17">
         <v>101</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1150,16 +1204,19 @@
         <v>27</v>
       </c>
       <c r="I18">
+        <v>76</v>
+      </c>
+      <c r="J18">
         <v>107</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1185,16 +1242,19 @@
         <v>28</v>
       </c>
       <c r="I19">
+        <v>93</v>
+      </c>
+      <c r="J19">
         <v>98</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1220,13 +1280,16 @@
         <v>29</v>
       </c>
       <c r="I20">
+        <v>80</v>
+      </c>
+      <c r="J20">
         <v>98</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1252,16 +1315,19 @@
         <v>30</v>
       </c>
       <c r="I21">
+        <v>61</v>
+      </c>
+      <c r="J21">
         <v>88</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1287,13 +1353,16 @@
         <v>31</v>
       </c>
       <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
         <v>100</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1319,16 +1388,19 @@
         <v>32</v>
       </c>
       <c r="I23">
+        <v>71</v>
+      </c>
+      <c r="J23">
         <v>98</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1354,16 +1426,19 @@
         <v>11</v>
       </c>
       <c r="I24">
+        <v>41</v>
+      </c>
+      <c r="J24">
         <v>89</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1389,16 +1464,19 @@
         <v>12</v>
       </c>
       <c r="I25">
+        <v>58</v>
+      </c>
+      <c r="J25">
         <v>50</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1424,13 +1502,16 @@
         <v>13</v>
       </c>
       <c r="I26">
+        <v>66</v>
+      </c>
+      <c r="J26">
         <v>103</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1456,13 +1537,16 @@
         <v>14</v>
       </c>
       <c r="I27">
+        <v>79</v>
+      </c>
+      <c r="J27">
         <v>101</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1488,16 +1572,19 @@
         <v>15</v>
       </c>
       <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
         <v>98</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1523,16 +1610,19 @@
         <v>16</v>
       </c>
       <c r="I29">
+        <v>63</v>
+      </c>
+      <c r="J29">
         <v>94</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1558,16 +1648,19 @@
         <v>17</v>
       </c>
       <c r="I30">
+        <v>92</v>
+      </c>
+      <c r="J30">
         <v>100</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1593,16 +1686,19 @@
         <v>18</v>
       </c>
       <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
         <v>97</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1628,13 +1724,16 @@
         <v>19</v>
       </c>
       <c r="I32">
+        <v>55</v>
+      </c>
+      <c r="J32">
         <v>100</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1660,13 +1759,16 @@
         <v>20</v>
       </c>
       <c r="I33">
+        <v>43</v>
+      </c>
+      <c r="J33">
         <v>100</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1692,16 +1794,19 @@
         <v>21</v>
       </c>
       <c r="I34">
+        <v>64</v>
+      </c>
+      <c r="J34">
         <v>93</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1727,16 +1832,19 @@
         <v>22</v>
       </c>
       <c r="I35">
+        <v>56</v>
+      </c>
+      <c r="J35">
         <v>102</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1762,13 +1870,16 @@
         <v>23</v>
       </c>
       <c r="I36">
+        <v>57</v>
+      </c>
+      <c r="J36">
         <v>97</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1794,13 +1905,16 @@
         <v>24</v>
       </c>
       <c r="I37">
+        <v>65</v>
+      </c>
+      <c r="J37">
         <v>102</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1826,13 +1940,16 @@
         <v>25</v>
       </c>
       <c r="I38">
+        <v>96</v>
+      </c>
+      <c r="J38">
         <v>102</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1858,16 +1975,19 @@
         <v>26</v>
       </c>
       <c r="I39">
+        <v>74</v>
+      </c>
+      <c r="J39">
         <v>102</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1893,13 +2013,16 @@
         <v>27</v>
       </c>
       <c r="I40">
+        <v>76</v>
+      </c>
+      <c r="J40">
         <v>106</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1925,16 +2048,19 @@
         <v>28</v>
       </c>
       <c r="I41">
+        <v>93</v>
+      </c>
+      <c r="J41">
         <v>98</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1960,16 +2086,19 @@
         <v>29</v>
       </c>
       <c r="I42">
+        <v>80</v>
+      </c>
+      <c r="J42">
         <v>99</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -1995,13 +2124,16 @@
         <v>30</v>
       </c>
       <c r="I43">
+        <v>61</v>
+      </c>
+      <c r="J43">
         <v>99</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2027,13 +2159,16 @@
         <v>31</v>
       </c>
       <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
         <v>101</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2059,13 +2194,16 @@
         <v>32</v>
       </c>
       <c r="I45">
+        <v>71</v>
+      </c>
+      <c r="J45">
         <v>98</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2091,13 +2229,16 @@
         <v>11</v>
       </c>
       <c r="I46">
+        <v>41</v>
+      </c>
+      <c r="J46">
         <v>90</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2123,16 +2264,19 @@
         <v>12</v>
       </c>
       <c r="I47">
+        <v>58</v>
+      </c>
+      <c r="J47">
         <v>51</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2158,16 +2302,19 @@
         <v>13</v>
       </c>
       <c r="I48">
+        <v>66</v>
+      </c>
+      <c r="J48">
         <v>103</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2193,16 +2340,19 @@
         <v>14</v>
       </c>
       <c r="I49">
+        <v>79</v>
+      </c>
+      <c r="J49">
         <v>99</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2228,13 +2378,16 @@
         <v>15</v>
       </c>
       <c r="I50">
+        <v>75</v>
+      </c>
+      <c r="J50">
         <v>98</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2260,13 +2413,16 @@
         <v>16</v>
       </c>
       <c r="I51">
+        <v>63</v>
+      </c>
+      <c r="J51">
         <v>92</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -2292,13 +2448,16 @@
         <v>17</v>
       </c>
       <c r="I52">
+        <v>92</v>
+      </c>
+      <c r="J52">
         <v>103</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -2324,13 +2483,16 @@
         <v>18</v>
       </c>
       <c r="I53">
+        <v>42</v>
+      </c>
+      <c r="J53">
         <v>99</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -2356,13 +2518,16 @@
         <v>19</v>
       </c>
       <c r="I54">
+        <v>55</v>
+      </c>
+      <c r="J54">
         <v>98</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -2388,13 +2553,16 @@
         <v>20</v>
       </c>
       <c r="I55">
+        <v>43</v>
+      </c>
+      <c r="J55">
         <v>106</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -2420,16 +2588,19 @@
         <v>21</v>
       </c>
       <c r="I56">
+        <v>64</v>
+      </c>
+      <c r="J56">
         <v>95</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -2455,13 +2626,16 @@
         <v>22</v>
       </c>
       <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
         <v>101</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2487,13 +2661,16 @@
         <v>23</v>
       </c>
       <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
         <v>97</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -2519,13 +2696,16 @@
         <v>24</v>
       </c>
       <c r="I59">
+        <v>65</v>
+      </c>
+      <c r="J59">
         <v>103</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -2551,13 +2731,16 @@
         <v>25</v>
       </c>
       <c r="I60">
+        <v>96</v>
+      </c>
+      <c r="J60">
         <v>102</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -2583,16 +2766,19 @@
         <v>26</v>
       </c>
       <c r="I61">
+        <v>74</v>
+      </c>
+      <c r="J61">
         <v>102</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -2618,16 +2804,19 @@
         <v>27</v>
       </c>
       <c r="I62">
+        <v>76</v>
+      </c>
+      <c r="J62">
         <v>105</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -2653,13 +2842,16 @@
         <v>28</v>
       </c>
       <c r="I63">
+        <v>93</v>
+      </c>
+      <c r="J63">
         <v>98</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -2685,13 +2877,16 @@
         <v>29</v>
       </c>
       <c r="I64">
+        <v>80</v>
+      </c>
+      <c r="J64">
         <v>98</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2717,13 +2912,16 @@
         <v>30</v>
       </c>
       <c r="I65">
+        <v>61</v>
+      </c>
+      <c r="J65">
         <v>99</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2749,13 +2947,16 @@
         <v>31</v>
       </c>
       <c r="I66">
+        <v>44</v>
+      </c>
+      <c r="J66">
         <v>100</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -2781,13 +2982,16 @@
         <v>32</v>
       </c>
       <c r="I67">
+        <v>71</v>
+      </c>
+      <c r="J67">
         <v>98</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>32</v>
       </c>
@@ -2813,13 +3017,16 @@
         <v>11</v>
       </c>
       <c r="I68">
+        <v>41</v>
+      </c>
+      <c r="J68">
         <v>90</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -2845,13 +3052,16 @@
         <v>12</v>
       </c>
       <c r="I69">
+        <v>58</v>
+      </c>
+      <c r="J69">
         <v>52</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -2877,13 +3087,16 @@
         <v>13</v>
       </c>
       <c r="I70">
+        <v>66</v>
+      </c>
+      <c r="J70">
         <v>102</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2909,13 +3122,16 @@
         <v>14</v>
       </c>
       <c r="I71">
+        <v>79</v>
+      </c>
+      <c r="J71">
         <v>98</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2941,13 +3157,16 @@
         <v>15</v>
       </c>
       <c r="I72">
+        <v>75</v>
+      </c>
+      <c r="J72">
         <v>98</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -2973,13 +3192,16 @@
         <v>16</v>
       </c>
       <c r="I73">
+        <v>63</v>
+      </c>
+      <c r="J73">
         <v>92</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -3005,13 +3227,16 @@
         <v>17</v>
       </c>
       <c r="I74">
+        <v>92</v>
+      </c>
+      <c r="J74">
         <v>102</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -3037,13 +3262,16 @@
         <v>18</v>
       </c>
       <c r="I75">
+        <v>42</v>
+      </c>
+      <c r="J75">
         <v>99</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -3069,13 +3297,16 @@
         <v>19</v>
       </c>
       <c r="I76">
+        <v>55</v>
+      </c>
+      <c r="J76">
         <v>98</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -3101,13 +3332,16 @@
         <v>20</v>
       </c>
       <c r="I77">
+        <v>43</v>
+      </c>
+      <c r="J77">
         <v>105</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -3133,13 +3367,16 @@
         <v>21</v>
       </c>
       <c r="I78">
+        <v>64</v>
+      </c>
+      <c r="J78">
         <v>93</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -3165,13 +3402,16 @@
         <v>22</v>
       </c>
       <c r="I79">
+        <v>56</v>
+      </c>
+      <c r="J79">
         <v>94</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -3197,13 +3437,16 @@
         <v>23</v>
       </c>
       <c r="I80">
+        <v>57</v>
+      </c>
+      <c r="J80">
         <v>97</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -3229,13 +3472,16 @@
         <v>24</v>
       </c>
       <c r="I81">
+        <v>65</v>
+      </c>
+      <c r="J81">
         <v>103</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -3261,13 +3507,16 @@
         <v>25</v>
       </c>
       <c r="I82">
+        <v>96</v>
+      </c>
+      <c r="J82">
         <v>101</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -3293,13 +3542,16 @@
         <v>26</v>
       </c>
       <c r="I83">
+        <v>74</v>
+      </c>
+      <c r="J83">
         <v>102</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -3325,13 +3577,16 @@
         <v>27</v>
       </c>
       <c r="I84">
+        <v>76</v>
+      </c>
+      <c r="J84">
         <v>104</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -3357,13 +3612,16 @@
         <v>28</v>
       </c>
       <c r="I85">
+        <v>93</v>
+      </c>
+      <c r="J85">
         <v>98</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -3389,13 +3647,16 @@
         <v>29</v>
       </c>
       <c r="I86">
+        <v>80</v>
+      </c>
+      <c r="J86">
         <v>98</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -3421,13 +3682,16 @@
         <v>30</v>
       </c>
       <c r="I87">
+        <v>61</v>
+      </c>
+      <c r="J87">
         <v>99</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -3453,13 +3717,16 @@
         <v>31</v>
       </c>
       <c r="I88">
+        <v>44</v>
+      </c>
+      <c r="J88">
         <v>101</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -3485,13 +3752,16 @@
         <v>32</v>
       </c>
       <c r="I89">
+        <v>71</v>
+      </c>
+      <c r="J89">
         <v>98</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -3517,13 +3787,16 @@
         <v>11</v>
       </c>
       <c r="I90">
+        <v>41</v>
+      </c>
+      <c r="J90">
         <v>90</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -3549,13 +3822,16 @@
         <v>12</v>
       </c>
       <c r="I91">
+        <v>58</v>
+      </c>
+      <c r="J91">
         <v>52</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -3581,13 +3857,16 @@
         <v>13</v>
       </c>
       <c r="I92">
+        <v>66</v>
+      </c>
+      <c r="J92">
         <v>102</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3613,13 +3892,16 @@
         <v>14</v>
       </c>
       <c r="I93">
+        <v>79</v>
+      </c>
+      <c r="J93">
         <v>98</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -3645,13 +3927,16 @@
         <v>15</v>
       </c>
       <c r="I94">
+        <v>75</v>
+      </c>
+      <c r="J94">
         <v>98</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -3677,13 +3962,16 @@
         <v>16</v>
       </c>
       <c r="I95">
+        <v>63</v>
+      </c>
+      <c r="J95">
         <v>92</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -3709,13 +3997,16 @@
         <v>17</v>
       </c>
       <c r="I96">
+        <v>92</v>
+      </c>
+      <c r="J96">
         <v>103</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -3741,13 +4032,16 @@
         <v>18</v>
       </c>
       <c r="I97">
+        <v>42</v>
+      </c>
+      <c r="J97">
         <v>98</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -3773,13 +4067,16 @@
         <v>19</v>
       </c>
       <c r="I98">
+        <v>55</v>
+      </c>
+      <c r="J98">
         <v>98</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -3805,13 +4102,16 @@
         <v>20</v>
       </c>
       <c r="I99">
+        <v>43</v>
+      </c>
+      <c r="J99">
         <v>104</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -3837,13 +4137,16 @@
         <v>21</v>
       </c>
       <c r="I100">
+        <v>64</v>
+      </c>
+      <c r="J100">
         <v>94</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -3869,16 +4172,19 @@
         <v>22</v>
       </c>
       <c r="I101">
+        <v>56</v>
+      </c>
+      <c r="J101">
         <v>88</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>6</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -3904,13 +4210,16 @@
         <v>23</v>
       </c>
       <c r="I102">
+        <v>57</v>
+      </c>
+      <c r="J102">
         <v>97</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -3936,13 +4245,16 @@
         <v>24</v>
       </c>
       <c r="I103">
+        <v>65</v>
+      </c>
+      <c r="J103">
         <v>103</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3968,13 +4280,16 @@
         <v>25</v>
       </c>
       <c r="I104">
+        <v>96</v>
+      </c>
+      <c r="J104">
         <v>102</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -4000,13 +4315,16 @@
         <v>26</v>
       </c>
       <c r="I105">
+        <v>74</v>
+      </c>
+      <c r="J105">
         <v>102</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -4032,13 +4350,16 @@
         <v>27</v>
       </c>
       <c r="I106">
+        <v>76</v>
+      </c>
+      <c r="J106">
         <v>102</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -4064,13 +4385,16 @@
         <v>28</v>
       </c>
       <c r="I107">
+        <v>93</v>
+      </c>
+      <c r="J107">
         <v>98</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -4096,13 +4420,16 @@
         <v>29</v>
       </c>
       <c r="I108">
+        <v>80</v>
+      </c>
+      <c r="J108">
         <v>98</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -4128,13 +4455,16 @@
         <v>30</v>
       </c>
       <c r="I109">
+        <v>61</v>
+      </c>
+      <c r="J109">
         <v>98</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -4160,13 +4490,16 @@
         <v>31</v>
       </c>
       <c r="I110">
+        <v>44</v>
+      </c>
+      <c r="J110">
         <v>101</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -4192,13 +4525,16 @@
         <v>32</v>
       </c>
       <c r="I111">
+        <v>71</v>
+      </c>
+      <c r="J111">
         <v>97</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -4224,16 +4560,19 @@
         <v>11</v>
       </c>
       <c r="I112">
+        <v>41</v>
+      </c>
+      <c r="J112">
         <v>90</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112" t="s">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4259,13 +4598,16 @@
         <v>12</v>
       </c>
       <c r="I113">
+        <v>58</v>
+      </c>
+      <c r="J113">
         <v>52</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -4291,13 +4633,16 @@
         <v>13</v>
       </c>
       <c r="I114">
+        <v>66</v>
+      </c>
+      <c r="J114">
         <v>102</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -4323,16 +4668,19 @@
         <v>14</v>
       </c>
       <c r="I115">
+        <v>79</v>
+      </c>
+      <c r="J115">
         <v>101</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -4358,13 +4706,16 @@
         <v>15</v>
       </c>
       <c r="I116">
+        <v>75</v>
+      </c>
+      <c r="J116">
         <v>98</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -4390,13 +4741,16 @@
         <v>16</v>
       </c>
       <c r="I117">
+        <v>63</v>
+      </c>
+      <c r="J117">
         <v>92</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -4422,13 +4776,16 @@
         <v>17</v>
       </c>
       <c r="I118">
+        <v>92</v>
+      </c>
+      <c r="J118">
         <v>103</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -4454,13 +4811,16 @@
         <v>18</v>
       </c>
       <c r="I119">
+        <v>42</v>
+      </c>
+      <c r="J119">
         <v>98</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -4486,13 +4846,16 @@
         <v>19</v>
       </c>
       <c r="I120">
+        <v>55</v>
+      </c>
+      <c r="J120">
         <v>99</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -4518,13 +4881,16 @@
         <v>20</v>
       </c>
       <c r="I121">
+        <v>43</v>
+      </c>
+      <c r="J121">
         <v>104</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -4550,13 +4916,16 @@
         <v>21</v>
       </c>
       <c r="I122">
+        <v>64</v>
+      </c>
+      <c r="J122">
         <v>94</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -4582,16 +4951,19 @@
         <v>22</v>
       </c>
       <c r="I123">
+        <v>56</v>
+      </c>
+      <c r="J123">
         <v>85</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>4</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -4617,13 +4989,16 @@
         <v>23</v>
       </c>
       <c r="I124">
+        <v>57</v>
+      </c>
+      <c r="J124">
         <v>97</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -4649,13 +5024,16 @@
         <v>24</v>
       </c>
       <c r="I125">
+        <v>65</v>
+      </c>
+      <c r="J125">
         <v>103</v>
       </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -4681,13 +5059,16 @@
         <v>25</v>
       </c>
       <c r="I126">
+        <v>96</v>
+      </c>
+      <c r="J126">
         <v>102</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -4713,13 +5094,16 @@
         <v>26</v>
       </c>
       <c r="I127">
+        <v>74</v>
+      </c>
+      <c r="J127">
         <v>102</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -4745,13 +5129,16 @@
         <v>27</v>
       </c>
       <c r="I128">
+        <v>76</v>
+      </c>
+      <c r="J128">
         <v>102</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -4777,13 +5164,16 @@
         <v>28</v>
       </c>
       <c r="I129">
+        <v>93</v>
+      </c>
+      <c r="J129">
         <v>98</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -4809,13 +5199,16 @@
         <v>29</v>
       </c>
       <c r="I130">
+        <v>80</v>
+      </c>
+      <c r="J130">
         <v>98</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -4841,13 +5234,16 @@
         <v>30</v>
       </c>
       <c r="I131">
+        <v>61</v>
+      </c>
+      <c r="J131">
         <v>98</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -4873,13 +5269,16 @@
         <v>31</v>
       </c>
       <c r="I132">
+        <v>44</v>
+      </c>
+      <c r="J132">
         <v>101</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -4905,13 +5304,16 @@
         <v>32</v>
       </c>
       <c r="I133">
+        <v>71</v>
+      </c>
+      <c r="J133">
         <v>97</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -4937,13 +5339,16 @@
         <v>11</v>
       </c>
       <c r="I134">
+        <v>41</v>
+      </c>
+      <c r="J134">
         <v>90</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -4969,13 +5374,16 @@
         <v>12</v>
       </c>
       <c r="I135">
+        <v>58</v>
+      </c>
+      <c r="J135">
         <v>52</v>
       </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -5001,13 +5409,16 @@
         <v>13</v>
       </c>
       <c r="I136">
+        <v>66</v>
+      </c>
+      <c r="J136">
         <v>102</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -5033,13 +5444,16 @@
         <v>14</v>
       </c>
       <c r="I137">
+        <v>79</v>
+      </c>
+      <c r="J137">
         <v>101</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -5065,13 +5479,16 @@
         <v>15</v>
       </c>
       <c r="I138">
+        <v>75</v>
+      </c>
+      <c r="J138">
         <v>98</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>32</v>
       </c>
@@ -5097,13 +5514,16 @@
         <v>16</v>
       </c>
       <c r="I139">
+        <v>63</v>
+      </c>
+      <c r="J139">
         <v>92</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -5129,13 +5549,16 @@
         <v>17</v>
       </c>
       <c r="I140">
+        <v>92</v>
+      </c>
+      <c r="J140">
         <v>103</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -5161,13 +5584,16 @@
         <v>18</v>
       </c>
       <c r="I141">
+        <v>42</v>
+      </c>
+      <c r="J141">
         <v>98</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -5193,13 +5619,16 @@
         <v>19</v>
       </c>
       <c r="I142">
+        <v>55</v>
+      </c>
+      <c r="J142">
         <v>99</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -5225,16 +5654,19 @@
         <v>20</v>
       </c>
       <c r="I143">
+        <v>43</v>
+      </c>
+      <c r="J143">
         <v>105</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -5260,13 +5692,16 @@
         <v>21</v>
       </c>
       <c r="I144">
+        <v>64</v>
+      </c>
+      <c r="J144">
         <v>94</v>
       </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -5292,13 +5727,16 @@
         <v>22</v>
       </c>
       <c r="I145">
+        <v>56</v>
+      </c>
+      <c r="J145">
         <v>78</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -5324,13 +5762,16 @@
         <v>23</v>
       </c>
       <c r="I146">
+        <v>57</v>
+      </c>
+      <c r="J146">
         <v>97</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -5356,13 +5797,16 @@
         <v>24</v>
       </c>
       <c r="I147">
+        <v>65</v>
+      </c>
+      <c r="J147">
         <v>103</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>32</v>
       </c>
@@ -5388,13 +5832,16 @@
         <v>25</v>
       </c>
       <c r="I148">
+        <v>96</v>
+      </c>
+      <c r="J148">
         <v>102</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -5420,13 +5867,16 @@
         <v>26</v>
       </c>
       <c r="I149">
+        <v>74</v>
+      </c>
+      <c r="J149">
         <v>102</v>
       </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -5452,13 +5902,16 @@
         <v>27</v>
       </c>
       <c r="I150">
+        <v>76</v>
+      </c>
+      <c r="J150">
         <v>102</v>
       </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -5484,13 +5937,16 @@
         <v>28</v>
       </c>
       <c r="I151">
+        <v>93</v>
+      </c>
+      <c r="J151">
         <v>98</v>
       </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -5516,13 +5972,16 @@
         <v>29</v>
       </c>
       <c r="I152">
+        <v>80</v>
+      </c>
+      <c r="J152">
         <v>98</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -5548,16 +6007,19 @@
         <v>30</v>
       </c>
       <c r="I153">
+        <v>61</v>
+      </c>
+      <c r="J153">
         <v>100</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153" t="s">
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -5583,13 +6045,16 @@
         <v>31</v>
       </c>
       <c r="I154">
+        <v>44</v>
+      </c>
+      <c r="J154">
         <v>101</v>
       </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -5615,13 +6080,16 @@
         <v>32</v>
       </c>
       <c r="I155">
+        <v>71</v>
+      </c>
+      <c r="J155">
         <v>97</v>
       </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -5647,13 +6115,16 @@
         <v>11</v>
       </c>
       <c r="I156">
+        <v>41</v>
+      </c>
+      <c r="J156">
         <v>90</v>
       </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -5679,13 +6150,16 @@
         <v>12</v>
       </c>
       <c r="I157">
+        <v>58</v>
+      </c>
+      <c r="J157">
         <v>52</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -5711,13 +6185,16 @@
         <v>13</v>
       </c>
       <c r="I158">
+        <v>66</v>
+      </c>
+      <c r="J158">
         <v>102</v>
       </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -5743,13 +6220,16 @@
         <v>14</v>
       </c>
       <c r="I159">
+        <v>79</v>
+      </c>
+      <c r="J159">
         <v>101</v>
       </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -5775,13 +6255,16 @@
         <v>15</v>
       </c>
       <c r="I160">
+        <v>75</v>
+      </c>
+      <c r="J160">
         <v>98</v>
       </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -5807,13 +6290,16 @@
         <v>16</v>
       </c>
       <c r="I161">
+        <v>63</v>
+      </c>
+      <c r="J161">
         <v>92</v>
       </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -5839,13 +6325,16 @@
         <v>17</v>
       </c>
       <c r="I162">
+        <v>92</v>
+      </c>
+      <c r="J162">
         <v>103</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -5871,13 +6360,16 @@
         <v>18</v>
       </c>
       <c r="I163">
+        <v>42</v>
+      </c>
+      <c r="J163">
         <v>98</v>
       </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -5903,13 +6395,16 @@
         <v>19</v>
       </c>
       <c r="I164">
+        <v>55</v>
+      </c>
+      <c r="J164">
         <v>99</v>
       </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -5935,13 +6430,16 @@
         <v>20</v>
       </c>
       <c r="I165">
+        <v>43</v>
+      </c>
+      <c r="J165">
         <v>105</v>
       </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -5967,13 +6465,16 @@
         <v>21</v>
       </c>
       <c r="I166">
+        <v>64</v>
+      </c>
+      <c r="J166">
         <v>94</v>
       </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -5999,13 +6500,16 @@
         <v>22</v>
       </c>
       <c r="I167">
+        <v>56</v>
+      </c>
+      <c r="J167">
         <v>74</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -6031,13 +6535,16 @@
         <v>23</v>
       </c>
       <c r="I168">
+        <v>57</v>
+      </c>
+      <c r="J168">
         <v>97</v>
       </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -6063,13 +6570,16 @@
         <v>24</v>
       </c>
       <c r="I169">
+        <v>65</v>
+      </c>
+      <c r="J169">
         <v>103</v>
       </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>32</v>
       </c>
@@ -6095,13 +6605,16 @@
         <v>25</v>
       </c>
       <c r="I170">
+        <v>96</v>
+      </c>
+      <c r="J170">
         <v>102</v>
       </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -6127,13 +6640,16 @@
         <v>26</v>
       </c>
       <c r="I171">
+        <v>74</v>
+      </c>
+      <c r="J171">
         <v>102</v>
       </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -6159,16 +6675,19 @@
         <v>27</v>
       </c>
       <c r="I172">
+        <v>76</v>
+      </c>
+      <c r="J172">
         <v>103</v>
       </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172" t="s">
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -6194,13 +6713,16 @@
         <v>28</v>
       </c>
       <c r="I173">
+        <v>93</v>
+      </c>
+      <c r="J173">
         <v>98</v>
       </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -6226,13 +6748,16 @@
         <v>29</v>
       </c>
       <c r="I174">
+        <v>80</v>
+      </c>
+      <c r="J174">
         <v>98</v>
       </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -6258,13 +6783,16 @@
         <v>30</v>
       </c>
       <c r="I175">
+        <v>61</v>
+      </c>
+      <c r="J175">
         <v>100</v>
       </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -6290,13 +6818,16 @@
         <v>31</v>
       </c>
       <c r="I176">
+        <v>44</v>
+      </c>
+      <c r="J176">
         <v>101</v>
       </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -6322,13 +6853,16 @@
         <v>32</v>
       </c>
       <c r="I177">
+        <v>71</v>
+      </c>
+      <c r="J177">
         <v>97</v>
       </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -6354,16 +6888,19 @@
         <v>11</v>
       </c>
       <c r="I178">
+        <v>41</v>
+      </c>
+      <c r="J178">
         <v>88</v>
       </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" t="s">
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -6389,13 +6926,16 @@
         <v>12</v>
       </c>
       <c r="I179">
+        <v>58</v>
+      </c>
+      <c r="J179">
         <v>51</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -6421,13 +6961,16 @@
         <v>13</v>
       </c>
       <c r="I180">
+        <v>66</v>
+      </c>
+      <c r="J180">
         <v>102</v>
       </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -6453,16 +6996,19 @@
         <v>14</v>
       </c>
       <c r="I181">
+        <v>79</v>
+      </c>
+      <c r="J181">
         <v>99</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>1</v>
       </c>
-      <c r="K181" t="s">
+      <c r="L181" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -6488,13 +7034,16 @@
         <v>15</v>
       </c>
       <c r="I182">
+        <v>75</v>
+      </c>
+      <c r="J182">
         <v>98</v>
       </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -6520,13 +7069,16 @@
         <v>16</v>
       </c>
       <c r="I183">
+        <v>63</v>
+      </c>
+      <c r="J183">
         <v>92</v>
       </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -6552,13 +7104,16 @@
         <v>17</v>
       </c>
       <c r="I184">
+        <v>92</v>
+      </c>
+      <c r="J184">
         <v>103</v>
       </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -6584,13 +7139,16 @@
         <v>18</v>
       </c>
       <c r="I185">
+        <v>42</v>
+      </c>
+      <c r="J185">
         <v>98</v>
       </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -6616,13 +7174,16 @@
         <v>19</v>
       </c>
       <c r="I186">
+        <v>55</v>
+      </c>
+      <c r="J186">
         <v>99</v>
       </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -6648,13 +7209,16 @@
         <v>20</v>
       </c>
       <c r="I187">
+        <v>43</v>
+      </c>
+      <c r="J187">
         <v>105</v>
       </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -6680,16 +7244,19 @@
         <v>21</v>
       </c>
       <c r="I188">
+        <v>64</v>
+      </c>
+      <c r="J188">
         <v>93</v>
       </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188" t="s">
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -6715,13 +7282,16 @@
         <v>22</v>
       </c>
       <c r="I189">
+        <v>56</v>
+      </c>
+      <c r="J189">
         <v>72</v>
       </c>
-      <c r="J189">
+      <c r="K189">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -6747,13 +7317,16 @@
         <v>23</v>
       </c>
       <c r="I190">
+        <v>57</v>
+      </c>
+      <c r="J190">
         <v>97</v>
       </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -6779,13 +7352,16 @@
         <v>24</v>
       </c>
       <c r="I191">
+        <v>65</v>
+      </c>
+      <c r="J191">
         <v>103</v>
       </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -6811,13 +7387,16 @@
         <v>25</v>
       </c>
       <c r="I192">
+        <v>96</v>
+      </c>
+      <c r="J192">
         <v>102</v>
       </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -6843,13 +7422,16 @@
         <v>26</v>
       </c>
       <c r="I193">
+        <v>74</v>
+      </c>
+      <c r="J193">
         <v>102</v>
       </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -6875,13 +7457,16 @@
         <v>27</v>
       </c>
       <c r="I194">
+        <v>76</v>
+      </c>
+      <c r="J194">
         <v>103</v>
       </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -6907,13 +7492,16 @@
         <v>28</v>
       </c>
       <c r="I195">
+        <v>93</v>
+      </c>
+      <c r="J195">
         <v>98</v>
       </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -6939,13 +7527,16 @@
         <v>29</v>
       </c>
       <c r="I196">
+        <v>80</v>
+      </c>
+      <c r="J196">
         <v>98</v>
       </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -6971,13 +7562,16 @@
         <v>30</v>
       </c>
       <c r="I197">
+        <v>61</v>
+      </c>
+      <c r="J197">
         <v>100</v>
       </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -7003,13 +7597,16 @@
         <v>31</v>
       </c>
       <c r="I198">
+        <v>44</v>
+      </c>
+      <c r="J198">
         <v>101</v>
       </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -7035,13 +7632,16 @@
         <v>32</v>
       </c>
       <c r="I199">
+        <v>71</v>
+      </c>
+      <c r="J199">
         <v>97</v>
       </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -7067,13 +7667,16 @@
         <v>11</v>
       </c>
       <c r="I200">
+        <v>41</v>
+      </c>
+      <c r="J200">
         <v>89</v>
       </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -7099,13 +7702,16 @@
         <v>12</v>
       </c>
       <c r="I201">
+        <v>58</v>
+      </c>
+      <c r="J201">
         <v>51</v>
       </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -7131,13 +7737,16 @@
         <v>13</v>
       </c>
       <c r="I202">
+        <v>66</v>
+      </c>
+      <c r="J202">
         <v>102</v>
       </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -7163,13 +7772,16 @@
         <v>14</v>
       </c>
       <c r="I203">
+        <v>79</v>
+      </c>
+      <c r="J203">
         <v>100</v>
       </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -7195,13 +7807,16 @@
         <v>15</v>
       </c>
       <c r="I204">
+        <v>75</v>
+      </c>
+      <c r="J204">
         <v>98</v>
       </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -7227,13 +7842,16 @@
         <v>16</v>
       </c>
       <c r="I205">
+        <v>63</v>
+      </c>
+      <c r="J205">
         <v>92</v>
       </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -7259,13 +7877,16 @@
         <v>17</v>
       </c>
       <c r="I206">
+        <v>92</v>
+      </c>
+      <c r="J206">
         <v>103</v>
       </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -7291,13 +7912,16 @@
         <v>18</v>
       </c>
       <c r="I207">
+        <v>42</v>
+      </c>
+      <c r="J207">
         <v>98</v>
       </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -7323,13 +7947,16 @@
         <v>19</v>
       </c>
       <c r="I208">
+        <v>55</v>
+      </c>
+      <c r="J208">
         <v>99</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -7355,13 +7982,16 @@
         <v>20</v>
       </c>
       <c r="I209">
+        <v>43</v>
+      </c>
+      <c r="J209">
         <v>105</v>
       </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -7387,16 +8017,19 @@
         <v>21</v>
       </c>
       <c r="I210">
+        <v>64</v>
+      </c>
+      <c r="J210">
         <v>94</v>
       </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210" t="s">
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -7422,13 +8055,16 @@
         <v>22</v>
       </c>
       <c r="I211">
+        <v>56</v>
+      </c>
+      <c r="J211">
         <v>69</v>
       </c>
-      <c r="J211">
+      <c r="K211">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -7454,13 +8090,16 @@
         <v>23</v>
       </c>
       <c r="I212">
+        <v>57</v>
+      </c>
+      <c r="J212">
         <v>97</v>
       </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -7486,13 +8125,16 @@
         <v>24</v>
       </c>
       <c r="I213">
+        <v>65</v>
+      </c>
+      <c r="J213">
         <v>103</v>
       </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -7518,13 +8160,16 @@
         <v>25</v>
       </c>
       <c r="I214">
+        <v>96</v>
+      </c>
+      <c r="J214">
         <v>102</v>
       </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -7550,13 +8195,16 @@
         <v>26</v>
       </c>
       <c r="I215">
+        <v>74</v>
+      </c>
+      <c r="J215">
         <v>102</v>
       </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -7582,13 +8230,16 @@
         <v>27</v>
       </c>
       <c r="I216">
+        <v>76</v>
+      </c>
+      <c r="J216">
         <v>103</v>
       </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -7614,13 +8265,16 @@
         <v>28</v>
       </c>
       <c r="I217">
+        <v>93</v>
+      </c>
+      <c r="J217">
         <v>98</v>
       </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -7646,13 +8300,16 @@
         <v>29</v>
       </c>
       <c r="I218">
+        <v>80</v>
+      </c>
+      <c r="J218">
         <v>98</v>
       </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -7678,13 +8335,16 @@
         <v>30</v>
       </c>
       <c r="I219">
+        <v>61</v>
+      </c>
+      <c r="J219">
         <v>100</v>
       </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -7710,16 +8370,19 @@
         <v>31</v>
       </c>
       <c r="I220">
+        <v>44</v>
+      </c>
+      <c r="J220">
         <v>100</v>
       </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-      <c r="K220" t="s">
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -7745,13 +8408,16 @@
         <v>32</v>
       </c>
       <c r="I221">
+        <v>71</v>
+      </c>
+      <c r="J221">
         <v>97</v>
       </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -7777,16 +8443,19 @@
         <v>11</v>
       </c>
       <c r="I222">
+        <v>41</v>
+      </c>
+      <c r="J222">
         <v>90</v>
       </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222" t="s">
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -7812,13 +8481,16 @@
         <v>12</v>
       </c>
       <c r="I223">
+        <v>58</v>
+      </c>
+      <c r="J223">
         <v>51</v>
       </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -7843,15 +8515,18 @@
       <c r="H224">
         <v>13</v>
       </c>
-      <c r="I224" s="2">
+      <c r="I224">
+        <v>66</v>
+      </c>
+      <c r="J224" s="2">
         <v>102</v>
       </c>
-      <c r="J224" s="2">
-        <v>0</v>
-      </c>
-      <c r="K224" s="2"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224" s="2">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -7876,14 +8551,17 @@
       <c r="H225">
         <v>14</v>
       </c>
-      <c r="I225" s="2">
+      <c r="I225">
+        <v>79</v>
+      </c>
+      <c r="J225" s="2">
         <v>100</v>
       </c>
-      <c r="J225" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -7908,14 +8586,17 @@
       <c r="H226">
         <v>15</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226">
+        <v>75</v>
+      </c>
+      <c r="J226" s="2">
         <v>98</v>
       </c>
-      <c r="J226" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -7940,14 +8621,17 @@
       <c r="H227">
         <v>16</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227">
+        <v>63</v>
+      </c>
+      <c r="J227" s="2">
         <v>92</v>
       </c>
-      <c r="J227" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -7972,14 +8656,17 @@
       <c r="H228">
         <v>17</v>
       </c>
-      <c r="I228" s="2">
+      <c r="I228">
+        <v>92</v>
+      </c>
+      <c r="J228" s="2">
         <v>103</v>
       </c>
-      <c r="J228" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -8004,14 +8691,17 @@
       <c r="H229">
         <v>18</v>
       </c>
-      <c r="I229" s="2">
+      <c r="I229">
+        <v>42</v>
+      </c>
+      <c r="J229" s="2">
         <v>98</v>
       </c>
-      <c r="J229" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -8036,14 +8726,17 @@
       <c r="H230">
         <v>19</v>
       </c>
-      <c r="I230" s="2">
+      <c r="I230">
+        <v>55</v>
+      </c>
+      <c r="J230" s="2">
         <v>99</v>
       </c>
-      <c r="J230" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -8068,14 +8761,17 @@
       <c r="H231">
         <v>20</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231">
+        <v>43</v>
+      </c>
+      <c r="J231" s="2">
         <v>105</v>
       </c>
-      <c r="J231" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -8100,14 +8796,17 @@
       <c r="H232">
         <v>21</v>
       </c>
-      <c r="I232" s="2">
+      <c r="I232">
+        <v>64</v>
+      </c>
+      <c r="J232" s="2">
         <v>94</v>
       </c>
-      <c r="J232" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -8132,14 +8831,17 @@
       <c r="H233">
         <v>22</v>
       </c>
-      <c r="I233" s="2">
+      <c r="I233">
+        <v>56</v>
+      </c>
+      <c r="J233" s="2">
         <v>68</v>
       </c>
-      <c r="J233" s="2">
+      <c r="K233" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -8164,14 +8866,17 @@
       <c r="H234">
         <v>23</v>
       </c>
-      <c r="I234" s="2">
+      <c r="I234">
+        <v>57</v>
+      </c>
+      <c r="J234" s="2">
         <v>97</v>
       </c>
-      <c r="J234" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -8196,14 +8901,17 @@
       <c r="H235">
         <v>24</v>
       </c>
-      <c r="I235" s="2">
+      <c r="I235">
+        <v>65</v>
+      </c>
+      <c r="J235" s="2">
         <v>103</v>
       </c>
-      <c r="J235" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -8228,14 +8936,17 @@
       <c r="H236">
         <v>25</v>
       </c>
-      <c r="I236" s="2">
+      <c r="I236">
+        <v>96</v>
+      </c>
+      <c r="J236" s="2">
         <v>102</v>
       </c>
-      <c r="J236" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -8260,14 +8971,17 @@
       <c r="H237">
         <v>26</v>
       </c>
-      <c r="I237" s="2">
+      <c r="I237">
+        <v>74</v>
+      </c>
+      <c r="J237" s="2">
         <v>102</v>
       </c>
-      <c r="J237" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -8292,14 +9006,17 @@
       <c r="H238">
         <v>27</v>
       </c>
-      <c r="I238" s="2">
+      <c r="I238">
+        <v>76</v>
+      </c>
+      <c r="J238" s="2">
         <v>103</v>
       </c>
-      <c r="J238" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -8324,14 +9041,17 @@
       <c r="H239">
         <v>28</v>
       </c>
-      <c r="I239" s="2">
+      <c r="I239">
+        <v>93</v>
+      </c>
+      <c r="J239" s="2">
         <v>97</v>
       </c>
-      <c r="J239" s="2">
+      <c r="K239" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -8356,14 +9076,17 @@
       <c r="H240">
         <v>29</v>
       </c>
-      <c r="I240" s="2">
+      <c r="I240">
+        <v>80</v>
+      </c>
+      <c r="J240" s="2">
         <v>98</v>
       </c>
-      <c r="J240" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -8388,17 +9111,20 @@
       <c r="H241">
         <v>30</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241">
+        <v>61</v>
+      </c>
+      <c r="J241" s="2">
         <v>100</v>
       </c>
-      <c r="J241" s="2">
-        <v>0</v>
-      </c>
-      <c r="K241" t="s">
+      <c r="K241" s="2">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -8423,14 +9149,17 @@
       <c r="H242">
         <v>31</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242">
+        <v>44</v>
+      </c>
+      <c r="J242" s="2">
         <v>100</v>
       </c>
-      <c r="J242" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -8455,14 +9184,17 @@
       <c r="H243">
         <v>32</v>
       </c>
-      <c r="I243" s="2">
+      <c r="I243">
+        <v>71</v>
+      </c>
+      <c r="J243" s="2">
         <v>97</v>
       </c>
-      <c r="J243" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -8487,14 +9219,17 @@
       <c r="H244">
         <v>11</v>
       </c>
-      <c r="I244" s="2">
+      <c r="I244">
+        <v>41</v>
+      </c>
+      <c r="J244" s="2">
         <v>90</v>
       </c>
-      <c r="J244" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -8519,14 +9254,17 @@
       <c r="H245">
         <v>12</v>
       </c>
-      <c r="I245" s="2">
+      <c r="I245">
+        <v>58</v>
+      </c>
+      <c r="J245" s="2">
         <v>51</v>
       </c>
-      <c r="J245" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -8551,14 +9289,17 @@
       <c r="H246">
         <v>13</v>
       </c>
-      <c r="I246" s="2">
+      <c r="I246">
+        <v>66</v>
+      </c>
+      <c r="J246" s="2">
         <v>102</v>
       </c>
-      <c r="J246" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -8583,14 +9324,17 @@
       <c r="H247">
         <v>14</v>
       </c>
-      <c r="I247" s="2">
+      <c r="I247">
+        <v>79</v>
+      </c>
+      <c r="J247" s="2">
         <v>100</v>
       </c>
-      <c r="J247" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -8615,14 +9359,17 @@
       <c r="H248">
         <v>15</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248">
+        <v>75</v>
+      </c>
+      <c r="J248" s="2">
         <v>99</v>
       </c>
-      <c r="J248" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -8647,14 +9394,17 @@
       <c r="H249">
         <v>16</v>
       </c>
-      <c r="I249" s="2">
+      <c r="I249">
+        <v>63</v>
+      </c>
+      <c r="J249" s="2">
         <v>93</v>
       </c>
-      <c r="J249" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -8679,14 +9429,17 @@
       <c r="H250">
         <v>17</v>
       </c>
-      <c r="I250" s="2">
+      <c r="I250">
+        <v>92</v>
+      </c>
+      <c r="J250" s="2">
         <v>102</v>
       </c>
-      <c r="J250">
+      <c r="K250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -8711,14 +9464,17 @@
       <c r="H251">
         <v>18</v>
       </c>
-      <c r="I251" s="2">
+      <c r="I251">
+        <v>42</v>
+      </c>
+      <c r="J251" s="2">
         <v>98</v>
       </c>
-      <c r="J251" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -8743,14 +9499,17 @@
       <c r="H252">
         <v>19</v>
       </c>
-      <c r="I252" s="2">
+      <c r="I252">
+        <v>55</v>
+      </c>
+      <c r="J252" s="2">
         <v>99</v>
       </c>
-      <c r="J252" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -8775,14 +9534,17 @@
       <c r="H253">
         <v>20</v>
       </c>
-      <c r="I253" s="2">
+      <c r="I253">
+        <v>43</v>
+      </c>
+      <c r="J253" s="2">
         <v>105</v>
       </c>
-      <c r="J253" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>32</v>
       </c>
@@ -8807,14 +9569,17 @@
       <c r="H254">
         <v>21</v>
       </c>
-      <c r="I254" s="2">
+      <c r="I254">
+        <v>64</v>
+      </c>
+      <c r="J254" s="2">
         <v>94</v>
       </c>
-      <c r="J254" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -8839,14 +9604,17 @@
       <c r="H255">
         <v>22</v>
       </c>
-      <c r="I255" s="2">
+      <c r="I255">
+        <v>56</v>
+      </c>
+      <c r="J255" s="2">
         <v>66</v>
       </c>
-      <c r="J255" s="2">
+      <c r="K255" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -8871,14 +9639,17 @@
       <c r="H256">
         <v>23</v>
       </c>
-      <c r="I256" s="2">
+      <c r="I256">
+        <v>57</v>
+      </c>
+      <c r="J256" s="2">
         <v>97</v>
       </c>
-      <c r="J256" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -8903,14 +9674,17 @@
       <c r="H257">
         <v>24</v>
       </c>
-      <c r="I257" s="2">
+      <c r="I257">
+        <v>65</v>
+      </c>
+      <c r="J257" s="2">
         <v>103</v>
       </c>
-      <c r="J257" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -8935,14 +9709,17 @@
       <c r="H258">
         <v>25</v>
       </c>
-      <c r="I258" s="2">
+      <c r="I258">
+        <v>96</v>
+      </c>
+      <c r="J258" s="2">
         <v>102</v>
       </c>
-      <c r="J258" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -8967,14 +9744,17 @@
       <c r="H259">
         <v>26</v>
       </c>
-      <c r="I259" s="2">
+      <c r="I259">
+        <v>74</v>
+      </c>
+      <c r="J259" s="2">
         <v>102</v>
       </c>
-      <c r="J259" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -8999,14 +9779,17 @@
       <c r="H260">
         <v>27</v>
       </c>
-      <c r="I260" s="2">
+      <c r="I260">
+        <v>76</v>
+      </c>
+      <c r="J260" s="2">
         <v>103</v>
       </c>
-      <c r="J260" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -9031,17 +9814,20 @@
       <c r="H261">
         <v>28</v>
       </c>
-      <c r="I261" s="2">
+      <c r="I261">
+        <v>93</v>
+      </c>
+      <c r="J261" s="2">
         <v>95</v>
       </c>
-      <c r="J261" s="2">
-        <v>0</v>
-      </c>
-      <c r="K261" t="s">
+      <c r="K261" s="2">
+        <v>0</v>
+      </c>
+      <c r="L261" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -9066,14 +9852,17 @@
       <c r="H262">
         <v>29</v>
       </c>
-      <c r="I262" s="2">
+      <c r="I262">
+        <v>80</v>
+      </c>
+      <c r="J262" s="2">
         <v>98</v>
       </c>
-      <c r="J262" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>32</v>
       </c>
@@ -9098,14 +9887,17 @@
       <c r="H263">
         <v>30</v>
       </c>
-      <c r="I263" s="2">
+      <c r="I263">
+        <v>61</v>
+      </c>
+      <c r="J263" s="2">
         <v>100</v>
       </c>
-      <c r="J263" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -9130,14 +9922,17 @@
       <c r="H264">
         <v>31</v>
       </c>
-      <c r="I264" s="2">
+      <c r="I264">
+        <v>44</v>
+      </c>
+      <c r="J264" s="2">
         <v>100</v>
       </c>
-      <c r="J264" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>32</v>
       </c>
@@ -9162,14 +9957,17 @@
       <c r="H265">
         <v>32</v>
       </c>
-      <c r="I265" s="2">
+      <c r="I265">
+        <v>71</v>
+      </c>
+      <c r="J265" s="2">
         <v>97</v>
       </c>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -9194,14 +9992,17 @@
       <c r="H266">
         <v>11</v>
       </c>
-      <c r="I266" s="2">
+      <c r="I266">
+        <v>41</v>
+      </c>
+      <c r="J266" s="2">
         <v>90</v>
       </c>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>32</v>
       </c>
@@ -9226,14 +10027,17 @@
       <c r="H267">
         <v>12</v>
       </c>
-      <c r="I267" s="2">
+      <c r="I267">
+        <v>58</v>
+      </c>
+      <c r="J267" s="2">
         <v>51</v>
       </c>
-      <c r="J267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>32</v>
       </c>
@@ -9259,13 +10063,16 @@
         <v>13</v>
       </c>
       <c r="I268">
+        <v>66</v>
+      </c>
+      <c r="J268">
         <v>101</v>
       </c>
-      <c r="J268">
+      <c r="K268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>32</v>
       </c>
@@ -9290,14 +10097,17 @@
       <c r="H269">
         <v>14</v>
       </c>
-      <c r="I269" s="2">
+      <c r="I269">
+        <v>79</v>
+      </c>
+      <c r="J269" s="2">
         <v>100</v>
       </c>
-      <c r="J269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -9322,14 +10132,17 @@
       <c r="H270">
         <v>15</v>
       </c>
-      <c r="I270" s="2">
+      <c r="I270">
+        <v>75</v>
+      </c>
+      <c r="J270" s="2">
         <v>99</v>
       </c>
-      <c r="J270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -9355,13 +10168,16 @@
         <v>16</v>
       </c>
       <c r="I271">
+        <v>63</v>
+      </c>
+      <c r="J271">
         <v>92</v>
       </c>
-      <c r="J271">
+      <c r="K271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -9386,14 +10202,17 @@
       <c r="H272">
         <v>17</v>
       </c>
-      <c r="I272" s="2">
+      <c r="I272">
+        <v>92</v>
+      </c>
+      <c r="J272" s="2">
         <v>102</v>
       </c>
-      <c r="J272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -9419,16 +10238,19 @@
         <v>18</v>
       </c>
       <c r="I273">
+        <v>42</v>
+      </c>
+      <c r="J273">
         <v>97</v>
       </c>
-      <c r="J273">
+      <c r="K273">
         <v>1</v>
       </c>
-      <c r="K273" t="s">
+      <c r="L273" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -9453,14 +10275,17 @@
       <c r="H274">
         <v>19</v>
       </c>
-      <c r="I274" s="2">
+      <c r="I274">
+        <v>55</v>
+      </c>
+      <c r="J274" s="2">
         <v>99</v>
       </c>
-      <c r="J274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -9486,16 +10311,19 @@
         <v>20</v>
       </c>
       <c r="I275">
+        <v>43</v>
+      </c>
+      <c r="J275">
         <v>104</v>
       </c>
-      <c r="J275">
+      <c r="K275">
         <v>1</v>
       </c>
-      <c r="K275" t="s">
+      <c r="L275" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -9520,14 +10348,17 @@
       <c r="H276">
         <v>21</v>
       </c>
-      <c r="I276" s="2">
+      <c r="I276">
+        <v>64</v>
+      </c>
+      <c r="J276" s="2">
         <v>94</v>
       </c>
-      <c r="J276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -9553,13 +10384,16 @@
         <v>22</v>
       </c>
       <c r="I277">
+        <v>56</v>
+      </c>
+      <c r="J277">
         <v>63</v>
       </c>
-      <c r="J277">
+      <c r="K277">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -9584,14 +10418,17 @@
       <c r="H278">
         <v>23</v>
       </c>
-      <c r="I278" s="2">
+      <c r="I278">
+        <v>57</v>
+      </c>
+      <c r="J278" s="2">
         <v>97</v>
       </c>
-      <c r="J278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -9616,14 +10453,17 @@
       <c r="H279">
         <v>24</v>
       </c>
-      <c r="I279" s="2">
+      <c r="I279">
+        <v>65</v>
+      </c>
+      <c r="J279" s="2">
         <v>103</v>
       </c>
-      <c r="J279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -9649,13 +10489,16 @@
         <v>25</v>
       </c>
       <c r="I280">
+        <v>96</v>
+      </c>
+      <c r="J280">
         <v>101</v>
       </c>
-      <c r="J280">
+      <c r="K280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -9680,14 +10523,17 @@
       <c r="H281">
         <v>26</v>
       </c>
-      <c r="I281" s="2">
+      <c r="I281">
+        <v>74</v>
+      </c>
+      <c r="J281" s="2">
         <v>102</v>
       </c>
-      <c r="J281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -9712,14 +10558,17 @@
       <c r="H282">
         <v>27</v>
       </c>
-      <c r="I282" s="2">
+      <c r="I282">
+        <v>76</v>
+      </c>
+      <c r="J282" s="2">
         <v>103</v>
       </c>
-      <c r="J282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -9745,13 +10594,16 @@
         <v>28</v>
       </c>
       <c r="I283">
+        <v>93</v>
+      </c>
+      <c r="J283">
         <v>94</v>
       </c>
-      <c r="J283">
+      <c r="K283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -9777,13 +10629,16 @@
         <v>29</v>
       </c>
       <c r="I284">
+        <v>80</v>
+      </c>
+      <c r="J284">
         <v>97</v>
       </c>
-      <c r="J284">
+      <c r="K284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>32</v>
       </c>
@@ -9808,14 +10663,17 @@
       <c r="H285">
         <v>30</v>
       </c>
-      <c r="I285" s="2">
+      <c r="I285">
+        <v>61</v>
+      </c>
+      <c r="J285" s="2">
         <v>100</v>
       </c>
-      <c r="J285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -9840,14 +10698,17 @@
       <c r="H286">
         <v>31</v>
       </c>
-      <c r="I286" s="2">
+      <c r="I286">
+        <v>44</v>
+      </c>
+      <c r="J286" s="2">
         <v>100</v>
       </c>
-      <c r="J286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -9872,10 +10733,13 @@
       <c r="H287">
         <v>32</v>
       </c>
-      <c r="I287" s="2">
+      <c r="I287">
+        <v>71</v>
+      </c>
+      <c r="J287" s="2">
         <v>97</v>
       </c>
-      <c r="J287">
+      <c r="K287">
         <v>0</v>
       </c>
     </row>
